--- a/data_output/prism_passive/all_passive_out_elong_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14.212225819379356</v>
+        <v>14.212225862432092</v>
       </c>
       <c r="C2">
-        <v>3.6001566668920049</v>
+        <v>3.6001566706076389</v>
       </c>
       <c r="D2">
-        <v>25.582699736896721</v>
+        <v>25.582699769331491</v>
       </c>
       <c r="E2">
-        <v>6.1694796194124635</v>
+        <v>6.1694796408867845</v>
       </c>
       <c r="F2">
-        <v>57.546372354330288</v>
+        <v>57.546372362075914</v>
       </c>
       <c r="G2">
-        <v>-0.56647605865283168</v>
+        <v>-0.56647605195719564</v>
       </c>
       <c r="H2">
-        <v>-9.1070018661710606E-2</v>
+        <v>-9.1069991679233908E-2</v>
       </c>
       <c r="I2">
-        <v>1.5143298590596785</v>
+        <v>1.5143298718232856</v>
       </c>
       <c r="J2">
-        <v>0.92651876974066738</v>
+        <v>0.92651879411315008</v>
       </c>
       <c r="K2">
-        <v>2.0886264251672344</v>
+        <v>2.0886264340921059</v>
       </c>
       <c r="L2">
-        <v>-0.37047322691221041</v>
+        <v>-0.37047320061331845</v>
       </c>
       <c r="M2">
-        <v>7.1971066532784036</v>
+        <v>7.1971066912749393</v>
       </c>
       <c r="N2">
-        <v>-8.3895725245326958E-2</v>
+        <v>-8.389568451745788E-2</v>
       </c>
       <c r="O2">
-        <v>-4.889520027724032</v>
+        <v>-4.8895200045989569</v>
       </c>
       <c r="P2">
-        <v>10.432557748532126</v>
+        <v>10.432557766494163</v>
       </c>
       <c r="Q2">
-        <v>3.7283652947093096</v>
+        <v>3.7283653014914577</v>
       </c>
       <c r="R2">
-        <v>2.5042050297281548</v>
+        <v>2.5042050373577567</v>
       </c>
       <c r="S2">
-        <v>5.807489629569254</v>
+        <v>5.8074896438678252</v>
       </c>
       <c r="T2">
-        <v>0.24996217308292046</v>
+        <v>0.2499622201459033</v>
       </c>
       <c r="U2">
-        <v>-12.554152456627797</v>
+        <v>-12.554152442332452</v>
       </c>
       <c r="V2">
-        <v>3.5200386965028514</v>
+        <v>3.5200387195748704</v>
       </c>
       <c r="W2">
-        <v>-4.3843363945824834</v>
+        <v>-4.3843363747509656</v>
       </c>
       <c r="X2">
-        <v>-4.5815480329147995</v>
+        <v>-4.5815480146995</v>
       </c>
       <c r="Y2">
-        <v>-5.0241038976003836</v>
+        <v>-5.0241038583260433</v>
       </c>
       <c r="Z2">
-        <v>24.45455527387314</v>
+        <v>24.454555298210352</v>
       </c>
       <c r="AA2">
-        <v>-9.1532741872414363</v>
+        <v>-9.1532741622986009</v>
       </c>
       <c r="AB2">
-        <v>2.5788404664156914</v>
+        <v>2.57884048167044</v>
       </c>
       <c r="AC2">
-        <v>-1.5498685356732551</v>
+        <v>-1.5498685278528868</v>
       </c>
       <c r="AD2">
-        <v>7.3059033327319156</v>
+        <v>7.3059033413594037</v>
       </c>
       <c r="AE2">
-        <v>24.515765883081755</v>
+        <v>24.515765895944789</v>
       </c>
       <c r="AF2">
-        <v>1.2152777293951758</v>
+        <v>1.2152777334444522</v>
       </c>
       <c r="AG2">
-        <v>-1.5806521797189248</v>
+        <v>-1.5806521557420297</v>
       </c>
       <c r="AH2">
-        <v>3.3026051456987844</v>
+        <v>3.3026051536439525</v>
       </c>
       <c r="AI2">
-        <v>-8.954752734528995</v>
+        <v>-8.9547527115510519</v>
       </c>
       <c r="AJ2">
-        <v>3.5517834601808573</v>
+        <v>3.5517834603145673</v>
       </c>
       <c r="AK2">
-        <v>1.671764820481684</v>
+        <v>1.6717648396174951</v>
       </c>
       <c r="AL2">
-        <v>0.18969639699295726</v>
+        <v>0.18969642053775715</v>
       </c>
       <c r="AM2">
-        <v>0.58311164599984977</v>
+        <v>0.58311167704650302</v>
       </c>
       <c r="AN2">
-        <v>0.6743447029512879</v>
+        <v>0.67434472478684881</v>
       </c>
       <c r="AO2">
-        <v>1.3380410338804047</v>
+        <v>1.3380410363774864</v>
       </c>
       <c r="AP2">
-        <v>-2.3258778771037889</v>
+        <v>-2.32587786235948</v>
       </c>
       <c r="AQ2">
-        <v>-1.4404316723712896E-2</v>
+        <v>-1.4404295172774084E-2</v>
       </c>
       <c r="AR2">
-        <v>1.7348484010832408</v>
+        <v>1.7348484009504048</v>
       </c>
       <c r="AS2">
-        <v>-5.6667824251761232</v>
+        <v>-5.6667824187577338</v>
       </c>
       <c r="AT2">
-        <v>-3.1268009567028301</v>
+        <v>-3.1268009412002797</v>
       </c>
       <c r="AU2">
-        <v>-4.1062072246229775</v>
+        <v>-4.1062072170356032</v>
       </c>
       <c r="AV2">
-        <v>3.2749419471928221</v>
+        <v>3.2749419725447027</v>
       </c>
       <c r="AW2">
-        <v>-3.223500719545175</v>
+        <v>-3.2235007139026273</v>
       </c>
       <c r="AX2">
-        <v>3.132186562130812E-2</v>
+        <v>3.1321880796689072E-2</v>
       </c>
       <c r="AY2">
-        <v>-6.431592420147517</v>
+        <v>-6.4315924051545323</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.7428558092770245</v>
+        <v>6.7428558360447184</v>
       </c>
       <c r="C3">
-        <v>1.2175816677147751</v>
+        <v>1.2175816970050732</v>
       </c>
       <c r="D3">
-        <v>-7.6445584542292693</v>
+        <v>-7.644558413150321</v>
       </c>
       <c r="E3">
-        <v>6.87111004698545</v>
+        <v>6.8711100827415805</v>
       </c>
       <c r="F3">
-        <v>7.8737024054407456</v>
+        <v>7.8737024107033733</v>
       </c>
       <c r="G3">
-        <v>-2.1260907813476422</v>
+        <v>-2.1260907579409221</v>
       </c>
       <c r="H3">
-        <v>0.20427783794094978</v>
+        <v>0.20427787221099436</v>
       </c>
       <c r="I3">
-        <v>0.36909884746511779</v>
+        <v>0.36909885471467163</v>
       </c>
       <c r="J3">
-        <v>1.2379976353950326</v>
+        <v>1.2379976555322401</v>
       </c>
       <c r="K3">
-        <v>-11.432285751420054</v>
+        <v>-11.432285723539579</v>
       </c>
       <c r="L3">
-        <v>-27.108450340295178</v>
+        <v>-27.10845031345562</v>
       </c>
       <c r="M3">
-        <v>7.4744155524350688</v>
+        <v>7.4743299819305449</v>
       </c>
       <c r="N3">
-        <v>1.8335974670815389</v>
+        <v>1.8335974964197703</v>
       </c>
       <c r="O3">
-        <v>2.8609691405934967</v>
+        <v>2.8609691566184168</v>
       </c>
       <c r="P3">
-        <v>-1.3114870936451624</v>
+        <v>-1.311487069258682</v>
       </c>
       <c r="Q3">
-        <v>4.6606185197663308</v>
+        <v>4.6606185401186053</v>
       </c>
       <c r="R3">
-        <v>3.7885606324349723</v>
+        <v>3.7885606478131706</v>
       </c>
       <c r="S3">
-        <v>5.1725516986738782</v>
+        <v>5.1725517126677616</v>
       </c>
       <c r="T3">
-        <v>3.9778400659852338</v>
+        <v>3.9778400873823614</v>
       </c>
       <c r="U3">
-        <v>2.6760588262849723</v>
+        <v>2.6760588586057281</v>
       </c>
       <c r="V3">
-        <v>-17.732206567948111</v>
+        <v>-17.732206547077645</v>
       </c>
       <c r="W3">
-        <v>-3.8295623338416362</v>
+        <v>-3.8295623137906887</v>
       </c>
       <c r="X3">
-        <v>1.7268521398073879</v>
+        <v>1.7268521510833104</v>
       </c>
       <c r="Y3">
-        <v>2.0186428625985613</v>
+        <v>2.0186428755791113</v>
       </c>
       <c r="Z3">
-        <v>1.5653463937865695</v>
+        <v>1.5653464126143888</v>
       </c>
       <c r="AA3">
-        <v>-4.4370969402745928</v>
+        <v>-4.4370969209358506</v>
       </c>
       <c r="AB3">
-        <v>2.2073392688765523</v>
+        <v>2.2073392921591619</v>
       </c>
       <c r="AC3">
-        <v>-2.6076825651562459</v>
+        <v>-2.6076825478553758</v>
       </c>
       <c r="AD3">
-        <v>8.1831520536800753</v>
+        <v>8.1831520634533632</v>
       </c>
       <c r="AE3">
-        <v>-3.4849055523425108</v>
+        <v>-3.4849055479039492</v>
       </c>
       <c r="AF3">
-        <v>-1.5438162641522624</v>
+        <v>-1.5438162477067863</v>
       </c>
       <c r="AG3">
-        <v>-10.876965724346448</v>
+        <v>-10.876965703241325</v>
       </c>
       <c r="AH3">
-        <v>-11.149229987483324</v>
+        <v>-11.149229968105594</v>
       </c>
       <c r="AI3">
-        <v>1.7106446634719816</v>
+        <v>1.7106446829440358</v>
       </c>
       <c r="AJ3">
-        <v>-6.0564376568492833</v>
+        <v>-6.0564376202301133</v>
       </c>
       <c r="AK3">
-        <v>-17.893672108616954</v>
+        <v>-17.893672084112097</v>
       </c>
       <c r="AL3">
-        <v>-7.155681153914017</v>
+        <v>-7.155681132919554</v>
       </c>
       <c r="AM3">
-        <v>1.5506244557123381</v>
+        <v>1.5506244944902292</v>
       </c>
       <c r="AN3">
-        <v>5.9981950305273628</v>
+        <v>5.9981950406704101</v>
       </c>
       <c r="AO3">
-        <v>-1.2077313752796996</v>
+        <v>-1.2077313392350213</v>
       </c>
       <c r="AP3">
-        <v>-0.1562423558983852</v>
+        <v>-0.15624234012653915</v>
       </c>
       <c r="AQ3">
-        <v>-3.003095342883249</v>
+        <v>-3.0030953363671316</v>
       </c>
       <c r="AR3">
-        <v>2.6438258432545965</v>
+        <v>2.6438258570655577</v>
       </c>
       <c r="AS3">
-        <v>5.80496505167838</v>
+        <v>5.80496506871755</v>
       </c>
       <c r="AT3">
-        <v>1.9944371027561374</v>
+        <v>1.9944371108993977</v>
       </c>
       <c r="AU3">
-        <v>-5.7810857780284906</v>
+        <v>-5.7810857514839284</v>
       </c>
       <c r="AV3">
-        <v>-4.2960178526900421</v>
+        <v>-4.2960178282266241</v>
       </c>
       <c r="AW3">
-        <v>0.44038005677921532</v>
+        <v>0.44038006878351865</v>
       </c>
       <c r="AX3">
-        <v>2.2309674106893809</v>
+        <v>2.2309674315809787</v>
       </c>
       <c r="AY3">
-        <v>1.2634221328245587</v>
+        <v>1.2634221552774676</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>14.212225862432092</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.6001566706076389</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>25.582699769331491</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.1694796408867845</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>57.546372362075914</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-0.56647605195719564</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-9.1069991679233908E-2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.5143298718232856</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.92651879411315008</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.0886264340921059</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>-0.37047320061331845</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.1971066912749393</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-8.389568451745788E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-4.8895200045989569</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>10.432557766494163</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.7283653014914577</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2.5042050373577567</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.8074896438678252</v>
+        <v>5.8074563138678243</v>
       </c>
       <c r="T2">
         <v>0.2499622201459033</v>
@@ -576,147 +465,144 @@
         <v>3.5200387195748704</v>
       </c>
       <c r="W2">
-        <v>-4.3843363747509656</v>
+        <v>-4.3843697047509664</v>
       </c>
       <c r="X2">
-        <v>-4.5815480146995</v>
+        <v>-4.5815146846994992</v>
       </c>
       <c r="Y2">
         <v>-5.0241038583260433</v>
       </c>
       <c r="Z2">
-        <v>24.454555298210352</v>
+        <v>24.454588628210352</v>
       </c>
       <c r="AA2">
-        <v>-9.1532741622986009</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.57884048167044</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-1.5498685278528868</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>7.3059033413594037</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>24.515765895944789</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.2152777334444522</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-1.5806521557420297</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.3026051536439525</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-8.9547527115510519</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.5517834603145673</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.6717648396174951</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.18969642053775715</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.58311167704650302</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.67434472478684881</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.3380410363774864</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-2.32587786235948</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-1.4404295172774084E-2</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.7348484009504048</v>
+        <v>1.7348817309504057</v>
       </c>
       <c r="AS2">
         <v>-5.6667824187577338</v>
       </c>
       <c r="AT2">
-        <v>-3.1268009412002797</v>
+        <v>-3.1268342712002806</v>
       </c>
       <c r="AU2">
-        <v>-4.1062072170356032</v>
+        <v>-4.1061738870356024</v>
       </c>
       <c r="AV2">
-        <v>3.2749419725447027</v>
+        <v>3.2749086425447089</v>
       </c>
       <c r="AW2">
-        <v>-3.2235007139026273</v>
+        <v>-3.2234673839026264</v>
       </c>
       <c r="AX2">
-        <v>3.1321880796689072E-2</v>
+        <v>3.1355210796682798E-2</v>
       </c>
       <c r="AY2">
-        <v>-6.4315924051545323</v>
+        <v>-6.4315590751545315</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>6.7428558360447184</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.2175816970050732</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-7.644558413150321</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.8711100827415805</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.8737024107033733</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>-2.1260907579409221</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.20427787221099436</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.36909885471467163</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.2379976555322401</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-11.432285723539579</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-27.10845031345562</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.4743299819305449</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.8335974964197703</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.8609691566184168</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-1.311487069258682</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.6606185401186053</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3.7885606478131706</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>5.1725517126677616</v>
@@ -728,94 +614,94 @@
         <v>2.6760588586057281</v>
       </c>
       <c r="V3">
-        <v>-17.732206547077645</v>
+        <v>-17.732173217077651</v>
       </c>
       <c r="W3">
-        <v>-3.8295623137906887</v>
+        <v>-3.829528983790695</v>
       </c>
       <c r="X3">
-        <v>1.7268521510833104</v>
+        <v>1.7268188210833095</v>
       </c>
       <c r="Y3">
-        <v>2.0186428755791113</v>
+        <v>-24.011390454420891</v>
       </c>
       <c r="Z3">
-        <v>1.5653464126143888</v>
+        <v>-3.8780202573856144</v>
       </c>
       <c r="AA3">
-        <v>-4.4370969209358506</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.2073392921591619</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-2.6076825478553758</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>8.1831520634533632</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-3.4849055479039492</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-1.5438162477067863</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-10.876965703241325</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-11.149229968105594</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.7106446829440358</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-6.0564376202301133</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-17.893672084112097</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-7.155681132919554</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.5506244944902292</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.9981950406704101</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-1.2077313392350213</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.15624234012653915</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-3.0030953363671316</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>2.6438258570655577</v>
+        <v>2.643792527065564</v>
       </c>
       <c r="AS3">
-        <v>5.80496506871755</v>
+        <v>5.804998398717558</v>
       </c>
       <c r="AT3">
         <v>1.9944371108993977</v>
       </c>
       <c r="AU3">
-        <v>-5.7810857514839284</v>
+        <v>-5.7810524214839276</v>
       </c>
       <c r="AV3">
-        <v>-4.2960178282266241</v>
+        <v>-4.2959844982266162</v>
       </c>
       <c r="AW3">
         <v>0.44038006878351865</v>
       </c>
       <c r="AX3">
-        <v>2.2309674315809787</v>
+        <v>-1.942332568419026</v>
       </c>
       <c r="AY3">
-        <v>1.2634221552774676</v>
+        <v>-41.15654451472254</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14.212192489379355</v>
+        <v>-4.889486674598956</v>
       </c>
       <c r="C2">
-        <v>-2.7065100031079936</v>
+        <v>2.5042050373577567</v>
       </c>
       <c r="D2">
-        <v>25.582733066896715</v>
+        <v>0.67431139478685509</v>
       </c>
       <c r="E2">
-        <v>6.1694462894124626</v>
+        <v>-1.4437625172774915E-2</v>
       </c>
       <c r="F2">
         <v>57.546372354330288</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.7428558092770245</v>
+        <v>2.8609691566184168</v>
       </c>
       <c r="C3">
-        <v>-6.6691183322852226</v>
+        <v>3.7885273178131698</v>
       </c>
       <c r="D3">
-        <v>-7.6445917842292701</v>
+        <v>5.9981617106704093</v>
       </c>
       <c r="E3">
-        <v>6.8711433769854438</v>
+        <v>-3.2221819687262965</v>
       </c>
       <c r="F3">
         <v>7.8737024054407456</v>

--- a/data_output/prism_passive/all_passive_out_elong_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14.212192489379355</v>
+        <v>19.302737645482544</v>
       </c>
       <c r="C2">
-        <v>-2.7065100031079936</v>
+        <v>-4.889486674598956</v>
       </c>
       <c r="D2">
-        <v>25.582733066896715</v>
+        <v>-3.6368883229535029</v>
       </c>
       <c r="E2">
-        <v>6.1694462894124626</v>
+        <v>0.67431139478685509</v>
       </c>
       <c r="F2">
         <v>57.546372354330288</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.7428558092770245</v>
+        <v>17.636964166419766</v>
       </c>
       <c r="C3">
-        <v>-6.6691183322852226</v>
+        <v>2.8609691566184168</v>
       </c>
       <c r="D3">
-        <v>-7.6445917842292701</v>
+        <v>-15.559375505509777</v>
       </c>
       <c r="E3">
-        <v>6.8711433769854438</v>
+        <v>5.9981617106704093</v>
       </c>
       <c r="F3">
         <v>7.8737024054407456</v>

--- a/data_output/prism_passive/all_passive_out_elong_AT_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_AT_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>14.212192532432091</v>
+      </c>
+      <c r="C2">
+        <v>-2.7065099993923596</v>
+      </c>
+      <c r="D2">
+        <v>25.582733099331485</v>
+      </c>
+      <c r="E2">
+        <v>6.1694463108867836</v>
+      </c>
+      <c r="F2">
+        <v>57.546372362075914</v>
+      </c>
+      <c r="G2">
+        <v>-0.56650938195719647</v>
+      </c>
+      <c r="H2">
+        <v>-9.1069991679233908E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.5143632018232864</v>
+      </c>
+      <c r="J2">
+        <v>0.92648546411314214</v>
+      </c>
+      <c r="K2">
+        <v>-18.954706895907904</v>
+      </c>
+      <c r="L2">
+        <v>-0.37050653061331218</v>
+      </c>
+      <c r="M2">
+        <v>7.1971066912749393</v>
+      </c>
+      <c r="N2">
         <v>19.302737645482544</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>-4.889486674598956</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>10.432557766494163</v>
+      </c>
+      <c r="Q2">
+        <v>-21.615001368508544</v>
+      </c>
+      <c r="R2">
+        <v>2.5042050373577567</v>
+      </c>
+      <c r="S2">
+        <v>5.8074563138678243</v>
+      </c>
+      <c r="T2">
+        <v>0.2499622201459033</v>
+      </c>
+      <c r="U2">
+        <v>-12.554152442332452</v>
+      </c>
+      <c r="V2">
+        <v>3.5200387195748704</v>
+      </c>
+      <c r="W2">
+        <v>-4.3843697047509664</v>
+      </c>
+      <c r="X2">
+        <v>-4.5815146846994992</v>
+      </c>
+      <c r="Y2">
+        <v>-5.0241038583260433</v>
+      </c>
+      <c r="Z2">
+        <v>24.454588628210352</v>
+      </c>
+      <c r="AA2">
+        <v>-9.1533074922986017</v>
+      </c>
+      <c r="AB2">
+        <v>12.038873811670442</v>
+      </c>
+      <c r="AC2">
+        <v>-1.5498351978528859</v>
+      </c>
+      <c r="AD2">
+        <v>7.3059366713594045</v>
+      </c>
+      <c r="AE2">
+        <v>24.515765895944789</v>
+      </c>
+      <c r="AF2">
+        <v>1.2153110634444531</v>
+      </c>
+      <c r="AG2">
+        <v>-1.5806854857420376</v>
+      </c>
+      <c r="AH2">
+        <v>3.3026384836439533</v>
+      </c>
+      <c r="AI2">
+        <v>-8.9547527115510519</v>
+      </c>
+      <c r="AJ2">
+        <v>1.7618167903145689</v>
+      </c>
+      <c r="AK2">
+        <v>1.6717648396174951</v>
+      </c>
+      <c r="AL2">
+        <v>0.18972975053775798</v>
+      </c>
+      <c r="AM2">
         <v>-3.6368883229535029</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.67431139478685509</v>
       </c>
-      <c r="F2">
-        <v>57.546372354330288</v>
-      </c>
-      <c r="G2">
-        <v>-0.56650938865283251</v>
-      </c>
-      <c r="H2">
-        <v>-9.1070018661710606E-2</v>
-      </c>
-      <c r="I2">
-        <v>1.5143631890596794</v>
-      </c>
-      <c r="J2">
-        <v>0.92648543974065944</v>
-      </c>
-      <c r="K2">
-        <v>-18.954706904832776</v>
-      </c>
-      <c r="L2">
-        <v>-0.37050655691220413</v>
-      </c>
-      <c r="M2">
-        <v>7.1971066532784036</v>
-      </c>
-      <c r="N2">
-        <v>19.302737604754675</v>
-      </c>
-      <c r="O2">
-        <v>-4.8894866977240312</v>
-      </c>
-      <c r="P2">
-        <v>10.432557748532126</v>
-      </c>
-      <c r="Q2">
-        <v>-21.615001375290692</v>
-      </c>
-      <c r="R2">
-        <v>2.5042050297281548</v>
-      </c>
-      <c r="S2">
-        <v>5.8074562995692531</v>
-      </c>
-      <c r="T2">
-        <v>0.24996217308292046</v>
-      </c>
-      <c r="U2">
-        <v>-12.554152456627797</v>
-      </c>
-      <c r="V2">
-        <v>3.5200386965028514</v>
-      </c>
-      <c r="W2">
-        <v>-4.3843697245824842</v>
-      </c>
-      <c r="X2">
-        <v>-4.5815147029147987</v>
-      </c>
-      <c r="Y2">
-        <v>-5.0241038976003836</v>
-      </c>
-      <c r="Z2">
-        <v>24.454588603873141</v>
-      </c>
-      <c r="AA2">
-        <v>-9.1533075172414371</v>
-      </c>
-      <c r="AB2">
-        <v>12.038873796415693</v>
-      </c>
-      <c r="AC2">
-        <v>-1.5498352056732543</v>
-      </c>
-      <c r="AD2">
-        <v>7.3059366627319164</v>
-      </c>
-      <c r="AE2">
-        <v>24.515765883081755</v>
-      </c>
-      <c r="AF2">
-        <v>1.2153110593951766</v>
-      </c>
-      <c r="AG2">
-        <v>-1.5806855097189327</v>
-      </c>
-      <c r="AH2">
-        <v>3.3026384756987852</v>
-      </c>
-      <c r="AI2">
-        <v>-8.954752734528995</v>
-      </c>
-      <c r="AJ2">
-        <v>1.761816790180859</v>
-      </c>
-      <c r="AK2">
-        <v>1.671764820481684</v>
-      </c>
-      <c r="AL2">
-        <v>0.18972972699295809</v>
-      </c>
-      <c r="AM2">
-        <v>-3.6368883540001562</v>
-      </c>
-      <c r="AN2">
-        <v>0.67431137295129417</v>
-      </c>
       <c r="AO2">
-        <v>1.3380743638804056</v>
+        <v>1.3380743663774872</v>
       </c>
       <c r="AP2">
-        <v>-2.3258778771037889</v>
+        <v>-2.32587786235948</v>
       </c>
       <c r="AQ2">
-        <v>-1.4437646723713726E-2</v>
+        <v>-1.4437625172774915E-2</v>
       </c>
       <c r="AR2">
-        <v>1.7348817310832416</v>
+        <v>1.7348817309504057</v>
       </c>
       <c r="AS2">
-        <v>-5.6667824251761232</v>
+        <v>-5.6667824187577338</v>
       </c>
       <c r="AT2">
-        <v>-3.1268342867028309</v>
+        <v>-3.1268342712002806</v>
       </c>
       <c r="AU2">
-        <v>-4.1061738946229767</v>
+        <v>-4.1061738870356024</v>
       </c>
       <c r="AV2">
-        <v>3.2749086171928283</v>
+        <v>3.2749086425447089</v>
       </c>
       <c r="AW2">
-        <v>-3.2234673895451742</v>
+        <v>-3.2234673839026264</v>
       </c>
       <c r="AX2">
-        <v>3.1355195621301846E-2</v>
+        <v>3.1355210796682798E-2</v>
       </c>
       <c r="AY2">
-        <v>-6.4315590901475161</v>
+        <v>-6.4315590751545315</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.7428558360447184</v>
+      </c>
+      <c r="C3">
+        <v>-6.6691183029949244</v>
+      </c>
+      <c r="D3">
+        <v>-7.6445917431503219</v>
+      </c>
+      <c r="E3">
+        <v>6.8711434127415743</v>
+      </c>
+      <c r="F3">
+        <v>7.8737024107033733</v>
+      </c>
+      <c r="G3">
+        <v>-2.1260574279409212</v>
+      </c>
+      <c r="H3">
+        <v>0.20431120221098809</v>
+      </c>
+      <c r="I3">
+        <v>0.36913218471467246</v>
+      </c>
+      <c r="J3">
+        <v>-11.522002344467765</v>
+      </c>
+      <c r="K3">
+        <v>-11.432285723539579</v>
+      </c>
+      <c r="L3">
+        <v>-27.10845031345562</v>
+      </c>
+      <c r="M3">
+        <v>7.474296651930544</v>
+      </c>
+      <c r="N3">
         <v>17.636964166419766</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>2.8609691566184168</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-1.311487069258682</v>
+      </c>
+      <c r="Q3">
+        <v>4.6606518701186062</v>
+      </c>
+      <c r="R3">
+        <v>3.7885273178131698</v>
+      </c>
+      <c r="S3">
+        <v>5.1725517126677616</v>
+      </c>
+      <c r="T3">
+        <v>3.9778400873823614</v>
+      </c>
+      <c r="U3">
+        <v>2.6760588586057281</v>
+      </c>
+      <c r="V3">
+        <v>-17.732173217077651</v>
+      </c>
+      <c r="W3">
+        <v>-3.829528983790695</v>
+      </c>
+      <c r="X3">
+        <v>1.7268188210833095</v>
+      </c>
+      <c r="Y3">
+        <v>-24.011390454420891</v>
+      </c>
+      <c r="Z3">
+        <v>-3.8780202573856144</v>
+      </c>
+      <c r="AA3">
+        <v>-4.4370635909358498</v>
+      </c>
+      <c r="AB3">
+        <v>1.7373726221591568</v>
+      </c>
+      <c r="AC3">
+        <v>-2.6077158778553766</v>
+      </c>
+      <c r="AD3">
+        <v>8.183185393453364</v>
+      </c>
+      <c r="AE3">
+        <v>-3.4848722179039484</v>
+      </c>
+      <c r="AF3">
+        <v>-1.5438162477067863</v>
+      </c>
+      <c r="AG3">
+        <v>-10.876965703241325</v>
+      </c>
+      <c r="AH3">
+        <v>-11.114136808472459</v>
+      </c>
+      <c r="AI3">
+        <v>-1.229321987055954</v>
+      </c>
+      <c r="AJ3">
+        <v>-6.0564376202301133</v>
+      </c>
+      <c r="AK3">
+        <v>-17.893705414112105</v>
+      </c>
+      <c r="AL3">
+        <v>-7.155681132919554</v>
+      </c>
+      <c r="AM3">
         <v>-15.559375505509777</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>5.9981617106704093</v>
       </c>
-      <c r="F3">
-        <v>7.8737024054407456</v>
-      </c>
-      <c r="G3">
-        <v>-2.1260574513476413</v>
-      </c>
-      <c r="H3">
-        <v>0.20431116794094351</v>
-      </c>
-      <c r="I3">
-        <v>0.36913217746511862</v>
-      </c>
-      <c r="J3">
-        <v>-11.522002364604973</v>
-      </c>
-      <c r="K3">
-        <v>-11.432285751420054</v>
-      </c>
-      <c r="L3">
-        <v>-27.108450340295178</v>
-      </c>
-      <c r="M3">
-        <v>7.474382222435068</v>
-      </c>
-      <c r="N3">
-        <v>17.636964137081534</v>
-      </c>
-      <c r="O3">
-        <v>2.8609691405934967</v>
-      </c>
-      <c r="P3">
-        <v>-1.3114870936451624</v>
-      </c>
-      <c r="Q3">
-        <v>4.6606518497663316</v>
-      </c>
-      <c r="R3">
-        <v>3.7885273024349715</v>
-      </c>
-      <c r="S3">
-        <v>5.1725516986738782</v>
-      </c>
-      <c r="T3">
-        <v>3.9778400659852338</v>
-      </c>
-      <c r="U3">
-        <v>2.6760588262849723</v>
-      </c>
-      <c r="V3">
-        <v>-17.732173237948118</v>
-      </c>
-      <c r="W3">
-        <v>-3.8295290038416425</v>
-      </c>
-      <c r="X3">
-        <v>1.7268188098073871</v>
-      </c>
-      <c r="Y3">
-        <v>-24.011390467401441</v>
-      </c>
-      <c r="Z3">
-        <v>-3.8780202762134337</v>
-      </c>
-      <c r="AA3">
-        <v>-4.437063610274592</v>
-      </c>
-      <c r="AB3">
-        <v>1.7373725988765472</v>
-      </c>
-      <c r="AC3">
-        <v>-2.6077158951562467</v>
-      </c>
-      <c r="AD3">
-        <v>8.1831853836800761</v>
-      </c>
-      <c r="AE3">
-        <v>-3.4848722223425099</v>
-      </c>
-      <c r="AF3">
-        <v>-1.5438162641522624</v>
-      </c>
-      <c r="AG3">
-        <v>-10.876965724346448</v>
-      </c>
-      <c r="AH3">
-        <v>-11.114136818943486</v>
-      </c>
-      <c r="AI3">
-        <v>-1.2293220065280082</v>
-      </c>
-      <c r="AJ3">
-        <v>-6.0564376568492833</v>
-      </c>
-      <c r="AK3">
-        <v>-17.893705438616962</v>
-      </c>
-      <c r="AL3">
-        <v>-7.155681153914017</v>
-      </c>
-      <c r="AM3">
-        <v>-15.559375544287668</v>
-      </c>
-      <c r="AN3">
-        <v>5.998161700527362</v>
-      </c>
       <c r="AO3">
-        <v>-1.2077647052797005</v>
+        <v>-1.2077646692350221</v>
       </c>
       <c r="AP3">
-        <v>-0.15620902589838437</v>
+        <v>-0.15620901012653832</v>
       </c>
       <c r="AQ3">
-        <v>-3.2221819747162925</v>
+        <v>-3.2221819687262965</v>
       </c>
       <c r="AR3">
-        <v>2.6437925132546027</v>
+        <v>2.643792527065564</v>
       </c>
       <c r="AS3">
-        <v>5.8049983816783879</v>
+        <v>5.804998398717558</v>
       </c>
       <c r="AT3">
-        <v>1.9944371027561374</v>
+        <v>1.9944371108993977</v>
       </c>
       <c r="AU3">
-        <v>-5.7810524480284897</v>
+        <v>-5.7810524214839276</v>
       </c>
       <c r="AV3">
-        <v>-4.2959845226900342</v>
+        <v>-4.2959844982266162</v>
       </c>
       <c r="AW3">
-        <v>0.44038005677921532</v>
+        <v>0.44038006878351865</v>
       </c>
       <c r="AX3">
-        <v>-1.9423325893106238</v>
+        <v>-1.942332568419026</v>
       </c>
       <c r="AY3">
-        <v>-41.156544537175449</v>
+        <v>-41.15654451472254</v>
       </c>
     </row>
   </sheetData>
